--- a/R/codebooks/D3_study_population_cohort.xlsx
+++ b/R/codebooks/D3_study_population_cohort.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26815"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Seafile\Seafile\Mia Libreria\CVM\EHR_studies\Readiness\script_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="11_3056A906FC7FE3DA939FDBD6C30816973CCA1FD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93D9A2D7-A006-4D7B-AFCA-2ABF46720DA4}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_3056A906FC7FE3DA939FDBD6C30816973CCA1FD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8D867E3-DDD5-4DDE-B0CF-93A5B7FE3BA6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>Content of the dataset</t>
   </si>
   <si>
-    <t>contains the baseline characteristics of the study population, for the cohirt study</t>
+    <t>contains the baseline characteristics of the study population, for the cohort study</t>
   </si>
   <si>
     <t>Unit of observation</t>
@@ -660,7 +660,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -878,8 +878,8 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -965,8 +965,8 @@
   </sheetPr>
   <dimension ref="A1:Z922"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A2:XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -28143,29 +28143,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6dac44d48b4406d5c320fe911a853389">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183e839aabd2ef2c305af4a754f6d8de" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8718e4a61e08f80278e3f0325a3727eb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f65cc27c03321c69be19df794a0d9ee" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
     <xsd:import namespace="797b3a1e-a17b-4ca2-8e72-b47fcb862c81"/>
     <xsd:element name="properties">
@@ -28189,6 +28168,7 @@
                 <xsd:element ref="ns2:Comments" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -28266,6 +28246,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" elementFormDefault="qualified">
@@ -28408,8 +28393,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+    <TaxCatchAll xmlns="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8029070a-695f-410c-a424-24d0683063af">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C494EE76-F438-41BD-8D24-558A34A32DF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAF23924-FD8A-479C-B909-6A4ACDBF646E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28417,5 +28423,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0138E63A-5426-4DB0-9743-894E3B42655B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C494EE76-F438-41BD-8D24-558A34A32DF1}"/>
 </file>